--- a/data/cat_wf7333 .xlsx
+++ b/data/cat_wf7333 .xlsx
@@ -8,22 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpres\py\aDbnostixAcctg\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF5ADF6-185B-4468-B4D9-5DDAB16BAA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F1257D-2D28-4299-B21E-8050E38B4296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="345" windowWidth="24525" windowHeight="15195" xr2:uid="{D0B35B83-91F3-41FB-A3B8-18A9102AEDF9}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="20850" windowHeight="11745" xr2:uid="{D0B35B83-91F3-41FB-A3B8-18A9102AEDF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="cat_wf7333 " sheetId="1" r:id="rId1"/>
+    <sheet name="Category" sheetId="2" r:id="rId1"/>
+    <sheet name="cat_wf7333 " sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'cat_wf7333 '!$A$1:$D$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'cat_wf7333 '!$A$1:$D$219</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="241">
   <si>
     <t>Date</t>
   </si>
@@ -34,9 +51,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Account Code</t>
-  </si>
-  <si>
     <t>BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 231228 3SYERCS1PVNBBIQ LARRY S PRESTOSA</t>
   </si>
   <si>
@@ -737,6 +751,18 @@
   </si>
   <si>
     <t>RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0HBXZTZF BUSINESS MARKET RATE SAVINGS CHKTOSAV</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Amount</t>
   </si>
 </sst>
 </file>
@@ -1220,9 +1246,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1279,6 +1310,1531 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="lpres" refreshedDate="45551.602760416667" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="218" xr:uid="{114D88D8-23F1-46E8-845B-C6F1F36DF6D9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:D219" sheet="cat_wf7333 "/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-03T00:00:00" maxDate="2023-12-29T00:00:00"/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-40000" maxValue="25331.279999999999"/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="29">
+        <s v="CC - Capo"/>
+        <s v="CC - Amex"/>
+        <s v="CC - Citi"/>
+        <s v="Telephone"/>
+        <s v="Internet"/>
+        <s v="Health Care"/>
+        <s v="Income"/>
+        <s v="Tax - VA"/>
+        <s v="Tax - IRS"/>
+        <s v="Payroll"/>
+        <s v="Rent"/>
+        <s v="Royalty"/>
+        <s v="Professional Fees"/>
+        <s v="Health Dental"/>
+        <s v="Income - Consulting"/>
+        <s v="Repairs and Maintenance"/>
+        <s v="Travel Expenses"/>
+        <s v="Utilities"/>
+        <s v="Insurance"/>
+        <s v="Equipment"/>
+        <s v="Furnitures and Fixtures"/>
+        <s v="Bank Fees"/>
+        <s v="Office Expenses"/>
+        <s v="Government Fees"/>
+        <s v="Vehicle Tax"/>
+        <s v="Uncategorized"/>
+        <s v="Vehicle"/>
+        <s v="Partner Draw"/>
+        <s v="Subscription"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="218">
+  <r>
+    <d v="2023-12-28T00:00:00"/>
+    <n v="-816.86"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 231228 3SYERCS1PVNBBIQ LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-12-21T00:00:00"/>
+    <n v="-507.92"/>
+    <s v="AMEX EPAYMENT ACH PMT 231221 A1056 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <n v="-3648.8"/>
+    <s v="CITI AUTOPAY PAYMENT 231218 081252854420142 LARRIMERS S PRESTOSA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <n v="-208.27"/>
+    <s v="VERIZON WIRELESS PAYMENTS 231219 052666754200001 0000000052666754200001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-12-19T00:00:00"/>
+    <n v="-83.99"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-12-13T00:00:00"/>
+    <n v="-803.18"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 231212 000000000446163 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-12-12T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000028826118 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-12-11T00:00:00"/>
+    <n v="3.84"/>
+    <s v="STRIPE TRANSFER ST-K0M7S9P3F5B7 DBNOSTIX"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2023-11-28T00:00:00"/>
+    <n v="-961.29"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 231128 3SS2MKYF9PXP9N6 LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-11-22T00:00:00"/>
+    <n v="-18.12"/>
+    <s v="AMEX EPAYMENT ACH PMT 231122 A9766 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-11-21T00:00:00"/>
+    <n v="-208.1"/>
+    <s v="VERIZON WIRELESS PAYMENTS 231121 052666754200001 0000000052666754200001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-11-20T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-11-17T00:00:00"/>
+    <n v="-791.79"/>
+    <s v="CITI AUTOPAY PAYMENT 231116 081225206392853 LARRIMERS S PRESTOSA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-11-13T00:00:00"/>
+    <n v="-579.34"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 231112 000000000443566 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-11-13T00:00:00"/>
+    <n v="-504.11"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 231110 000000000207213 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-11-13T00:00:00"/>
+    <n v="-575"/>
+    <s v="BUSINESS TO BUSINESS ACH VA DEPT TAXATION TAX PAYMEN 231109 XXXXX4443 DBNOSTIX LLC"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2023-11-13T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000023708194 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-11-10T00:00:00"/>
+    <n v="-3330"/>
+    <s v="BUSINESS TO BUSINESS ACH IRS USATAXPYMT 111023 270371440608128 DBNOSTIX LLC"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2023-11-10T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0L9JGWPR EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-11-08T00:00:00"/>
+    <n v="0.02"/>
+    <s v="STRIPE TRANSFER ST-S1W9P3K8E1P3 DBNOSTIX"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <d v="2023-11-06T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0L8DS499 EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-11-06T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0L86FJFX BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-11-03T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO LARRIMER LLC REF #OP0L7JN23W BUSINESS CHECKING FROMDBNOSTIXTOLARRIMERLLC"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2023-11-02T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0L75QS68 BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-10-30T00:00:00"/>
+    <n v="-963.76"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 231028 3SLIB2S1XVQIPZM LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-10-26T00:00:00"/>
+    <n v="-38"/>
+    <s v="Thomas Olivero"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <d v="2023-10-23T00:00:00"/>
+    <n v="-137.74"/>
+    <s v="AMEX EPAYMENT ACH PMT 231023 A1690 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-10-20T00:00:00"/>
+    <n v="18723.12"/>
+    <s v="TCG, Inc. Bill.com 016ZBUMBO316XLI TCG, Inc. Bill.com 016ZBUMBO316XLI Acct #"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2023-10-19T00:00:00"/>
+    <n v="-208.3"/>
+    <s v="VERIZON WIRELESS PAYMENTS 231019 052666754200001 0000000052666754200001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-10-18T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-10-17T00:00:00"/>
+    <n v="-890.02"/>
+    <s v="CITI AUTOPAY PAYMENT 231016 081198456330229 LARRIMERS S PRESTOSA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-10-17T00:00:00"/>
+    <n v="-23.06"/>
+    <s v="PLANET FIT CLUB FEES 2328911504058 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-10-13T00:00:00"/>
+    <n v="-1099.78"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 231012 000000000440897 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-10-11T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000029131799 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-10-10T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0KYHWCS6 EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-10-06T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0KXGLYVR EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-10-05T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0KX4P2XJ BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-10-03T00:00:00"/>
+    <n v="-564.6"/>
+    <s v="BUSINESS TO BUSINESS ACH EXTRAS Dental ACH PYMT 231002 WTNLLHPNSB9V Conchita T Prestosa"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <d v="2023-10-03T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO LARRIMER LLC REF #OP0KWJCJQY BUSINESS CHECKING FROMDBNOSTIXTOLARRIMERLLC"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2023-10-02T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0KW7DNP3 BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-09-28T00:00:00"/>
+    <n v="-473.49"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 230928 3SF6DWKY7UBV11U LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-09-21T00:00:00"/>
+    <n v="-943.52"/>
+    <s v="AMEX EPAYMENT ACH PMT 230921 A4972 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-09-21T00:00:00"/>
+    <n v="18723.12"/>
+    <s v="TCG, Inc. Bill.com 016TDAOEN2UKK4W TCG, Inc. Bill.com 016TDAOEN2UKK4W Acct #"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2023-09-20T00:00:00"/>
+    <n v="-1000"/>
+    <s v="Cesar Barrios"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <d v="2023-09-19T00:00:00"/>
+    <n v="-2006.02"/>
+    <s v="CITI AUTOPAY PAYMENT 230918 081174194370089 LARRIMERS S PRESTOSA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-09-19T00:00:00"/>
+    <n v="-575"/>
+    <s v="BUSINESS TO BUSINESS ACH VA DEPT TAXATION TAX PAYMEN 230918 XXXXX4443 DBNOSTIX LLC"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2023-09-19T00:00:00"/>
+    <n v="-207.9"/>
+    <s v="VERIZON WIRELESS PAYMENTS 230919 052666754200001 0000000052666754200001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-09-19T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-09-18T00:00:00"/>
+    <n v="-23.06"/>
+    <s v="PLANET FIT CLUB FEES 2325812280955 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-09-14T00:00:00"/>
+    <n v="-3330"/>
+    <s v="BUSINESS TO BUSINESS ACH IRS USATAXPYMT 091423 270365732225714 DBNOSTIX LLC"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2023-09-14T00:00:00"/>
+    <n v="-47.26"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 230914 3SC7VPNN12ANH4M LARRIMER S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-09-13T00:00:00"/>
+    <n v="-214.73"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230912 000000000436193 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-09-12T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000024249641 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-09-11T00:00:00"/>
+    <n v="-5069.97"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230910 000000000109427 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-09-11T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0KNXPJ57 EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-09-06T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0KMQ4KYW EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-09-05T00:00:00"/>
+    <n v="-200"/>
+    <s v="XOOM DEBIT OID 230905 23759373 PRESTOSA LARRIMER"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <d v="2023-09-05T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0KMFLZVP BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-09-05T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO LARRIMER LLC REF #OP0KLZ2RSQ BUSINESS CHECKING FROMDBNOSTIXTOLARRIMERLLC"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2023-09-05T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0KLPLY59 BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-08-29T00:00:00"/>
+    <n v="-1550"/>
+    <s v="BUSINESS TO BUSINESS ACH Convert Solar LL Bill.com 025ABMJIROLYRAV Convert Solar LLC - Inv #204989"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <d v="2023-08-29T00:00:00"/>
+    <n v="-0.21"/>
+    <s v="BUSINESS TO BUSINESS ACH Convert Solar LL ACCTVERIFY 025KKTKVDBLZPDC Larry Prestosa"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <d v="2023-08-29T00:00:00"/>
+    <n v="0.21"/>
+    <s v="Convert Solar LL ACCTVERIFY 025KKTKVDBLZPDC Larry Prestosa"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <d v="2023-08-28T00:00:00"/>
+    <n v="-424.68"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 230828 3S8MQMQE1ZDPONM LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-08-28T00:00:00"/>
+    <n v="150"/>
+    <s v="MOBILE DEPOSIT : Travelers"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2023-08-25T00:00:00"/>
+    <n v="20925.84"/>
+    <s v="TCG, Inc. Bill.com 016OXYVBU2RBMQZ TCG, Inc. Bill.com 016OXYVBU2RBMQZ Acct #"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2023-08-24T00:00:00"/>
+    <n v="-40000"/>
+    <s v="FMTC/FBO [LARRIMER PRESTOSA]"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-08-22T00:00:00"/>
+    <n v="-530.61"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE ONLINE PMT 230822 3S7EFJHZM3GHSVQ LARRIMER S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-08-22T00:00:00"/>
+    <n v="-33.799999999999997"/>
+    <s v="AMEX EPAYMENT ACH PMT 230822 A2376 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-08-21T00:00:00"/>
+    <n v="-787.13"/>
+    <s v="TRACTOR SUPPLY AUTO PYMT 230820 721122230880730 LARRIMER PRESTOSA"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <d v="2023-08-21T00:00:00"/>
+    <n v="-207.58"/>
+    <s v="VERIZON WIRELESS PAYMENTS 230821 052666754200001 0000000052666754200001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-08-21T00:00:00"/>
+    <n v="-1715.62"/>
+    <s v="WT SEQ110511 LIQUIDITY SERVICES OPER /BNF=Liquidity Services Operations LLC SRF# OW00003543661450 TRN#230821110511 RFB# OW00003543661450"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <d v="2023-08-21T00:00:00"/>
+    <n v="-25"/>
+    <s v="WIRE TRANS SVC CHARGE - SEQUENCE: 230821110511 SRF# OW00003543661450 TRN#230821110511 RFB# OW00003543661450"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <d v="2023-08-18T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-08-17T00:00:00"/>
+    <n v="-1599.54"/>
+    <s v="CITI AUTOPAY PAYMENT 230816 081145682381339 LARRIMERS S PRESTOSA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-08-17T00:00:00"/>
+    <n v="-23.06"/>
+    <s v="PLANET FIT CLUB FEES 2322811512419 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-08-15T00:00:00"/>
+    <n v="-500"/>
+    <s v="Anthony King"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <d v="2023-08-14T00:00:00"/>
+    <n v="-1042.95"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230811 000000000854055 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-08-11T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000020385467 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-08-10T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0KDB52N9 EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-08-09T00:00:00"/>
+    <n v="-575"/>
+    <s v="BUSINESS TO BUSINESS ACH VA DEPT TAXATION TAX PAYMEN 230808 XXXXX4443 DBNOSTIX LLC"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2023-08-08T00:00:00"/>
+    <n v="-3330"/>
+    <s v="BUSINESS TO BUSINESS ACH IRS USATAXPYMT 080823 270362003336280 DBNOSTIX LLC"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2023-08-07T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0KCBHZ97 EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-08-07T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0KC2W4FG BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-08-03T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO LARRIMER LLC REF #OP0KBCV894 BUSINESS CHECKING FROMDBNOSTIXTOLARRIMERLLC"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2023-08-02T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0KB29SVZ BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-07-28T00:00:00"/>
+    <n v="-1662.07"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 230728 3S23CZKHH8UDMOI LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-07-26T00:00:00"/>
+    <n v="20237.490000000002"/>
+    <s v="TCG, Inc. Bill.com 016IJYNJC2Q4PL7 TCG, Inc. Bill.com 016IJYNJC2Q4PL7 Acct #"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2023-07-24T00:00:00"/>
+    <n v="-18.36"/>
+    <s v="AMEX EPAYMENT ACH PMT 230724 A2388 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-07-19T00:00:00"/>
+    <n v="-35.75"/>
+    <s v="Department of Motor Vehicles"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <d v="2023-07-19T00:00:00"/>
+    <n v="-207.58"/>
+    <s v="VERIZON WIRELESS PAYMENTS 230719 052666754200001 0000000052666754200001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-07-18T00:00:00"/>
+    <n v="-1114.3699999999999"/>
+    <s v="CITI AUTOPAY PAYMENT 230717 081119763550652 LARRIMERS S PRESTOSA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-07-18T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-07-17T00:00:00"/>
+    <n v="-99.93"/>
+    <s v="Pulmonary Associates of Richmond"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-07-17T00:00:00"/>
+    <n v="-23.06"/>
+    <s v="PLANET FIT CLUB FEES 2319512465049 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-07-14T00:00:00"/>
+    <n v="-520.36"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230712 000000000426268 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-07-12T00:00:00"/>
+    <n v="-575"/>
+    <s v="BUSINESS TO BUSINESS ACH VA DEPT TAXATION TAX PAYMEN 230711 XXXXX4443 DBNOSTIX LLC"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2023-07-11T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000026059468 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-07-10T00:00:00"/>
+    <n v="-3330"/>
+    <s v="BUSINESS TO BUSINESS ACH IRS USATAXPYMT 071023 270359145894843 DBNOSTIX LLC"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2023-07-10T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0K3M7B3L EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-07-06T00:00:00"/>
+    <n v="-1616.4"/>
+    <s v="ANTHEM BLUE MED SUPP 230705 4260422 DBNOSTIX *LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-07-06T00:00:00"/>
+    <n v="-1411.2"/>
+    <s v="ANTHEM BLUE MED SUPP 230705 4281819 DBNOSTIX *LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-07-06T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0K2J3XNS EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-07-05T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0K27XCQJ BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-07-03T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO LARRIMER LLC REF #OP0JZPL6KP BUSINESS CHECKING FROMDBNOSTIXTOLARRIMERLLC"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2023-07-03T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0JZHB9TZ BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-06-29T00:00:00"/>
+    <n v="-800"/>
+    <s v="Cesar Barrios"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <d v="2023-06-28T00:00:00"/>
+    <n v="-3201.71"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 230628 3RVRCWTBXTX0F82 LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-06-22T00:00:00"/>
+    <n v="-369.17"/>
+    <s v="AMEX EPAYMENT ACH PMT 230622 A7298 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-06-21T00:00:00"/>
+    <n v="-3100.21"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE ONLINE PMT 230621 3RUAM2DVW160OZA LARRIMER S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-06-21T00:00:00"/>
+    <n v="-207.51"/>
+    <s v="VERIZON WIRELESS PAYMENTS 230621 052666754200001 0000000052666754200001"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <d v="2023-06-21T00:00:00"/>
+    <n v="23128.560000000001"/>
+    <s v="TCG, Inc. Bill.com 016CAELAB2ORLNI TCG, Inc. Bill.com 016CAELAB2ORLNI Acct #"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2023-06-20T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-06-20T00:00:00"/>
+    <n v="-595"/>
+    <s v="CITI AUTOPAY PAYMENT 230616 081092978380589 LARRIMERS S PRESTOSA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-06-20T00:00:00"/>
+    <n v="-23.06"/>
+    <s v="PLANET FIT CLUB FEES 2316713922216 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-06-13T00:00:00"/>
+    <n v="-417.39"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230612 000000000417300 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-06-13T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000021479797 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-06-12T00:00:00"/>
+    <n v="-95"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230609 000000000205311 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-06-12T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0JSG68NN EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-06-06T00:00:00"/>
+    <n v="-1113.5"/>
+    <s v="Treasurer Chesterfield County (personal property tax Dodge van)"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <d v="2023-06-06T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0JR9Q3XB EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-06-05T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0JR286PN BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-06-05T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO LARRIMER LLC REF #OP0JQK4N4V BUSINESS CHECKING FROMDBNOSTIXTOLARRIMERLLC"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2023-06-02T00:00:00"/>
+    <n v="-100"/>
+    <s v="State Corporation Commission"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <d v="2023-06-02T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0JQ6DZ64 BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-05-30T00:00:00"/>
+    <n v="-333.95"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 230528 3RP7RB6W1A3IH3M LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-05-22T00:00:00"/>
+    <n v="-2.12"/>
+    <s v="AMEX EPAYMENT ACH PMT 230522 A2296 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-05-19T00:00:00"/>
+    <n v="-388.75"/>
+    <s v="VZ WIRELESS VE VZW WEBPAY 230518 1612833 LARRIMER *PRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-05-19T00:00:00"/>
+    <n v="22027.200000000001"/>
+    <s v="TCG, Inc. Bill.com 016WPCGUH2NJZ36 TCG, Inc. Bill.com 016WPCGUH2NJZ36 Acct #"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2023-05-18T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-05-17T00:00:00"/>
+    <n v="-124.12"/>
+    <s v="CITI AUTOPAY PAYMENT 230516 081066194342761 LARRIMERS S PRESTOSA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-05-17T00:00:00"/>
+    <n v="-23.06"/>
+    <s v="PLANET FIT CLUB FEES 2313613896007 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-05-15T00:00:00"/>
+    <n v="-451.55"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230512 000000000821563 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-05-12T00:00:00"/>
+    <n v="-575"/>
+    <s v="BUSINESS TO BUSINESS ACH VA DEPT TAXATION TAX PAYMEN 230511 XXXXX4443 DBNOSTIX LLC"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2023-05-11T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000027046235 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-05-10T00:00:00"/>
+    <n v="-3330"/>
+    <s v="BUSINESS TO BUSINESS ACH IRS USATAXPYMT 051023 270353092880993 DBNOSTIX LLC"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2023-05-10T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0JHTY9RP EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-05-08T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0JGWVRKY EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-05-05T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0JGKGPRL BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-05-03T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO LARRIMER LLC REF #OP0JFYFNNL BUSINESS CHECKING FROMDBNOSTIXTOLARRIMERLLC"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2023-05-02T00:00:00"/>
+    <n v="-564.6"/>
+    <s v="BUSINESS TO BUSINESS ACH EXTRAS Dental ACH PYMT 230501 O5RFTGL3TCT2 Larrimer S Prestosa"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <d v="2023-05-02T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0JFNQ239 BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-05-01T00:00:00"/>
+    <n v="-1759.45"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE ONLINE PMT 230501 3RJJLRJYP0LXTH2 LARRIMER S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-04-28T00:00:00"/>
+    <n v="-2207.92"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 230428 3RIVU9184GJ8102 LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-04-27T00:00:00"/>
+    <n v="-106.9"/>
+    <s v="United States Treasury  (Form 941)"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <d v="2023-04-25T00:00:00"/>
+    <n v="-10.4"/>
+    <s v="BUSINESS TO BUSINESS ACH VA. EMPLOY COMM UITAX PAID E0009443495 I0424202300150000001"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2023-04-24T00:00:00"/>
+    <n v="-299.42"/>
+    <s v="AMEX EPAYMENT ACH PMT 230424 A0110 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-04-24T00:00:00"/>
+    <n v="-4000"/>
+    <s v="Larry Prestosa   (for school bus)"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <d v="2023-04-20T00:00:00"/>
+    <n v="-11500"/>
+    <s v="CASH   (for 2013 Ford Van)"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <d v="2023-04-19T00:00:00"/>
+    <n v="25331.279999999999"/>
+    <s v="TCG, Inc. Bill.com 016YSBIVL2MAD55 TCG, Inc. Bill.com 016YSBIVL2MAD55 Acct #"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2023-04-18T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-04-17T00:00:00"/>
+    <n v="-23.06"/>
+    <s v="PLANET FIT CLUB FEES 2310413454249 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-04-13T00:00:00"/>
+    <n v="-375.76"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230412 000000000402672 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-04-12T00:00:00"/>
+    <n v="-575"/>
+    <s v="BUSINESS TO BUSINESS ACH VA DEPT TAXATION TAX PAYMEN 230411 XXXXX4443 DBNOSTIX LLC"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2023-04-11T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000021016742 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-04-10T00:00:00"/>
+    <n v="-3330"/>
+    <s v="BUSINESS TO BUSINESS ACH IRS USATAXPYMT 041023 270350014333709 DBNOSTIX LLC"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2023-04-10T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0J7MSPQF EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-04-06T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0J6M3LM8 EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-04-05T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0J6BSS3Y BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-04-03T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO LARRIMER LLC REF #OP0J5R8YZC BUSINESS CHECKING FROMDBNOSTIXTOLARRIMERLLC"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2023-04-03T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0J5JTJ2W BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-03-31T00:00:00"/>
+    <n v="-1808"/>
+    <s v="TRAVELERS BUS INSUR 230330 BPITBI124583458 DBNOSTIX LLCDBNOSTIX L"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2023-03-28T00:00:00"/>
+    <n v="-1603.9"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 230328 3RCCB3EOP13807M LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-03-22T00:00:00"/>
+    <n v="-14.12"/>
+    <s v="AMEX EPAYMENT ACH PMT 230322 A3920 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-03-21T00:00:00"/>
+    <n v="-18"/>
+    <s v="Thomas Olivero"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <d v="2023-03-20T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-03-20T00:00:00"/>
+    <n v="-79"/>
+    <s v="American Mensa"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <d v="2023-03-20T00:00:00"/>
+    <n v="20925.84"/>
+    <s v="TCG, Inc. Bill.com 016ZCXJSE2L1BRJ TCG, Inc. Bill.com 016ZCXJSE2L1BRJ Acct #"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2023-03-17T00:00:00"/>
+    <n v="-23.06"/>
+    <s v="PLANET FIT CLUB FEES 2307511014504 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-03-16T00:00:00"/>
+    <n v="-575"/>
+    <s v="BUSINESS TO BUSINESS ACH VA DEPT TAXATION TAX PAYMEN 230315 XXXXX4443 DBNOSTIX LLC"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2023-03-14T00:00:00"/>
+    <n v="-3330"/>
+    <s v="BUSINESS TO BUSINESS ACH IRS USATAXPYMT 031423 270347315683961 DBNOSTIX LLC"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2023-03-14T00:00:00"/>
+    <n v="-600"/>
+    <s v="Daniel Rivera"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <d v="2023-03-13T00:00:00"/>
+    <n v="-690.55"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230312 000000000403407 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-03-13T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000027206369 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-03-10T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0HXCPP3H EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-03-06T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0HWCL99Y EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-03-06T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0HW5HMD8 BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-03-03T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO LARRIMER LLC REF #OP0HVJSKM2 BUSINESS CHECKING FROMDBNOSTIXTOLARRIMERLLC"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2023-03-02T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0HV6BY44 BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-03-01T00:00:00"/>
+    <n v="-39"/>
+    <s v="PLANET FIT CLUB FEES 2305903082110 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-02-28T00:00:00"/>
+    <n v="-1369.48"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 230228 3R6FNFRG249WSNM LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-02-22T00:00:00"/>
+    <n v="-50.64"/>
+    <s v="AMEX EPAYMENT ACH PMT 230222 A4860 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-02-22T00:00:00"/>
+    <n v="-30000"/>
+    <s v="FMTC/FBO [LARRIMER PRESTOSA]  (for 2022)"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-02-22T00:00:00"/>
+    <n v="-30000"/>
+    <s v="FMTC/FBO [LARRIMER PRESTOSA]   (for 2022)"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-02-21T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-02-21T00:00:00"/>
+    <n v="-100"/>
+    <s v="ONLINE TRANSFER TO LARRIMER LLC REF #IB0HRH92Y8 BUSINESS CHECKING DBNOSTIXTOLARRIMERLLC"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <d v="2023-02-21T00:00:00"/>
+    <n v="22027.200000000001"/>
+    <s v="TCG, Inc. Bill.com 016XSOZYK2JVOQF TCG, Inc. Bill.com 016XSOZYK2JVOQF Acct #"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2023-02-17T00:00:00"/>
+    <n v="-23.06"/>
+    <s v="PLANET FIT CLUB FEES 2304710478169 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-02-13T00:00:00"/>
+    <n v="-559.96"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230212 000000000394194 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-02-13T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000021956154 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-02-10T00:00:00"/>
+    <n v="-575"/>
+    <s v="BUSINESS TO BUSINESS ACH VA DEPT TAXATION TAX PAYMEN 230209 XXXXX4443 DBNOSTIX LLC"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2023-02-10T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0HNTHLTF EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-02-08T00:00:00"/>
+    <n v="-3330"/>
+    <s v="BUSINESS TO BUSINESS ACH IRS USATAXPYMT 020823 270343973300074 DBNOSTIX LLC"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2023-02-08T00:00:00"/>
+    <n v="-42"/>
+    <s v="Check # 5748 (Converted ACH) US TREASURY IRS PAYMENT 230207 5748 PUSB40230380047210"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <d v="2023-02-06T00:00:00"/>
+    <n v="-3060"/>
+    <s v="BUSINESS TO BUSINESS ACH IRS USATAXPYMT 020623 270343785865896 DBNOSTIX LLC"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2023-02-06T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0HMVC3PL EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-02-06T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0HMMZVD2 BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-02-02T00:00:00"/>
+    <n v="-610.35"/>
+    <s v="BUSINESS TO BUSINESS ACH VA DEPT TAXATION TAX PAYMEN 230201 XXXXX4443 DBNOSTIX LLC"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <d v="2023-02-02T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0HLQCSDX BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-01-31T00:00:00"/>
+    <n v="-3330"/>
+    <s v="BUSINESS TO BUSINESS ACH IRS USATAXPYMT 013123 270343163211508 DBNOSTIX LLC"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <d v="2023-01-30T00:00:00"/>
+    <n v="-339.1"/>
+    <s v="BUSINESS TO BUSINESS ACH CAPITAL ONE CRCARDPMT 230128 3QZW4UIRLDOCJKI LARRY S PRESTOSA"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <d v="2023-01-30T00:00:00"/>
+    <n v="-4860"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0HKM7FRP EVERYDAY CHECKING LSP PAYROLL"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-01-30T00:00:00"/>
+    <n v="6759.1"/>
+    <s v="MOBILE DEPOSIT : United States Department of the Treasury"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <d v="2023-01-25T00:00:00"/>
+    <n v="-420"/>
+    <s v="United States Treasury  (2022 Form 1120-S)"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <d v="2023-01-23T00:00:00"/>
+    <n v="-27.16"/>
+    <s v="AMEX EPAYMENT ACH PMT 230123 A9456 LARRIMERS S PRESTOSA"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <d v="2023-01-20T00:00:00"/>
+    <n v="-1729.5"/>
+    <s v="Kansas City Life Insurance"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <d v="2023-01-19T00:00:00"/>
+    <n v="16520.400000000001"/>
+    <s v="TCG, Inc. Bill.com 016DBFTFH2IMJTN TCG, Inc. Bill.com 016DBFTFH2IMJTN Acct #"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <d v="2023-01-18T00:00:00"/>
+    <n v="-600"/>
+    <s v="Joseph Gador"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <d v="2023-01-18T00:00:00"/>
+    <n v="-250"/>
+    <s v="Luz Gador"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-01-18T00:00:00"/>
+    <n v="-79.989999999999995"/>
+    <s v="VERIZON PAYMENTREC URRING 7565191930001 LARRIMERPRESTOSA"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <d v="2023-01-17T00:00:00"/>
+    <n v="-1528.76"/>
+    <s v="CITI AUTOPAY PAYMENT 230116 080962553001191 LARRIMERS S PRESTOSA"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-01-17T00:00:00"/>
+    <n v="-23.06"/>
+    <s v="PLANET FIT CLUB FEES 2301308187021 804-658-3089"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-01-13T00:00:00"/>
+    <n v="-1086.58"/>
+    <s v="CHASE CREDIT CRD AUTOPAY 230112 000000000388772 PRESTOSA LARRY"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <d v="2023-01-10T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0HDY37VC EVERYDAY CHECKING LSP PROFIT SHARING"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-01-06T00:00:00"/>
+    <n v="-1000"/>
+    <s v="RECURRING TRANSFER TO PRESTOSA L REF #OP0HCZHHMY EVERYDAY CHECKING RENTTRAVELREIMBURSEMENT"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <d v="2023-01-05T00:00:00"/>
+    <n v="-500"/>
+    <s v="RECURRING TRANSFER TO LARCONDM LLC REF #OP0HCQF2LQ BUSINESS CHECKING DBNOSTIXTOLARCONDM"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <d v="2023-01-04T00:00:00"/>
+    <n v="-5.0999999999999996"/>
+    <s v="InstaMed SILVERSCRI 021000025486267 DBNOSTIX LLC"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <d v="2023-01-03T00:00:00"/>
+    <n v="-100"/>
+    <s v="RECURRING TRANSFER TO DBNOSTIX LLC REF #OP0HBXZTZF BUSINESS MARKET RATE SAVINGS CHKTOSAV"/>
+    <x v="12"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C004D6C3-5341-43C8-B48D-FD49B6248EA8}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="30">
+        <item x="21"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="6"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="27"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="15"/>
+        <item x="11"/>
+        <item x="28"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="25"/>
+        <item x="17"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="30">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1597,11 +3153,278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63622AD4-034D-4737-93E8-6E5FC55CE81F}">
+  <dimension ref="A3:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-2422.0899999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-19795.740000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-25809.629999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-787.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-1715.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-135.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-3708.329999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-1185.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4">
+        <v>208570.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-3387.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-1352.6299999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-11500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4">
+        <v>-126860</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-1700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4">
+        <v>-5500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-2400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4">
+        <v>-33030</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-5220.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="4">
+        <v>-1455.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="4">
+        <v>6190.2000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-1550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="4">
+        <v>-1113.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-41669.000000000015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D3876B-A5B2-4605-9D73-0FD713DD83EF}">
   <dimension ref="A1:D219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1633,10 +3456,10 @@
         <v>-816.86</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,10 +3470,10 @@
         <v>-507.92</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1661,10 +3484,10 @@
         <v>-3648.8</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1675,10 +3498,10 @@
         <v>-208.27</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1689,10 +3512,10 @@
         <v>-83.99</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1703,10 +3526,10 @@
         <v>-803.18</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1717,10 +3540,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,10 +3554,10 @@
         <v>3.84</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1745,10 +3568,10 @@
         <v>-961.29</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1759,10 +3582,10 @@
         <v>-18.12</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1773,10 +3596,10 @@
         <v>-208.1</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1787,10 +3610,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1801,10 +3624,10 @@
         <v>-791.79</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1815,10 +3638,10 @@
         <v>-579.34</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1829,10 +3652,10 @@
         <v>-504.11</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,10 +3666,10 @@
         <v>-575</v>
       </c>
       <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1857,10 +3680,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,10 +3694,10 @@
         <v>-3330</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1885,10 +3708,10 @@
         <v>-1000</v>
       </c>
       <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
         <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1899,10 +3722,10 @@
         <v>0.02</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1913,10 +3736,10 @@
         <v>-1000</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1927,10 +3750,10 @@
         <v>-500</v>
       </c>
       <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
         <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1941,10 +3764,10 @@
         <v>-100</v>
       </c>
       <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
         <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1955,10 +3778,10 @@
         <v>-100</v>
       </c>
       <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
         <v>38</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1969,10 +3792,10 @@
         <v>-963.76</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1983,10 +3806,10 @@
         <v>-38</v>
       </c>
       <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
         <v>41</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1997,10 +3820,10 @@
         <v>-137.74</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2011,10 +3834,10 @@
         <v>18723.12</v>
       </c>
       <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
         <v>44</v>
-      </c>
-      <c r="D29" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2025,10 +3848,10 @@
         <v>-208.3</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2039,10 +3862,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
         <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,10 +3876,10 @@
         <v>-890.02</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,10 +3890,10 @@
         <v>-23.06</v>
       </c>
       <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
         <v>48</v>
-      </c>
-      <c r="D33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2081,10 +3904,10 @@
         <v>-1099.78</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -2095,10 +3918,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -2109,10 +3932,10 @@
         <v>-1000</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -2123,10 +3946,10 @@
         <v>-1000</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -2137,10 +3960,10 @@
         <v>-500</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -2151,10 +3974,10 @@
         <v>-564.6</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2165,10 +3988,10 @@
         <v>-100</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -2179,10 +4002,10 @@
         <v>-100</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -2193,10 +4016,10 @@
         <v>-473.49</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -2207,10 +4030,10 @@
         <v>-943.52</v>
       </c>
       <c r="C43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2221,10 +4044,10 @@
         <v>18723.12</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -2235,10 +4058,10 @@
         <v>-1000</v>
       </c>
       <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
         <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -2249,10 +4072,10 @@
         <v>-2006.02</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -2263,10 +4086,10 @@
         <v>-575</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,10 +4100,10 @@
         <v>-207.9</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -2291,10 +4114,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
         <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2305,10 +4128,10 @@
         <v>-23.06</v>
       </c>
       <c r="C50" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2319,10 +4142,10 @@
         <v>-3330</v>
       </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -2333,10 +4156,10 @@
         <v>-47.26</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -2347,10 +4170,10 @@
         <v>-214.73</v>
       </c>
       <c r="C53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2361,10 +4184,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2375,10 +4198,10 @@
         <v>-5069.97</v>
       </c>
       <c r="C55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2389,10 +4212,10 @@
         <v>-1000</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2403,10 +4226,10 @@
         <v>-1000</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2417,10 +4240,10 @@
         <v>-200</v>
       </c>
       <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
         <v>74</v>
-      </c>
-      <c r="D58" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2431,10 +4254,10 @@
         <v>-500</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2445,10 +4268,10 @@
         <v>-100</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2459,10 +4282,10 @@
         <v>-100</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2473,10 +4296,10 @@
         <v>-1550</v>
       </c>
       <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
         <v>79</v>
-      </c>
-      <c r="D62" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2487,10 +4310,10 @@
         <v>-0.21</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2501,10 +4324,10 @@
         <v>0.21</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,10 +4338,10 @@
         <v>-424.68</v>
       </c>
       <c r="C65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2529,10 +4352,10 @@
         <v>150</v>
       </c>
       <c r="C66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" t="s">
         <v>84</v>
-      </c>
-      <c r="D66" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2543,10 +4366,10 @@
         <v>20925.84</v>
       </c>
       <c r="C67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2557,10 +4380,10 @@
         <v>-40000</v>
       </c>
       <c r="C68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2571,10 +4394,10 @@
         <v>-530.61</v>
       </c>
       <c r="C69" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2585,10 +4408,10 @@
         <v>-33.799999999999997</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2599,10 +4422,10 @@
         <v>-787.13</v>
       </c>
       <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" t="s">
         <v>90</v>
-      </c>
-      <c r="D71" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2613,10 +4436,10 @@
         <v>-207.58</v>
       </c>
       <c r="C72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2627,10 +4450,10 @@
         <v>-1715.62</v>
       </c>
       <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" t="s">
         <v>93</v>
-      </c>
-      <c r="D73" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2641,10 +4464,10 @@
         <v>-25</v>
       </c>
       <c r="C74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" t="s">
         <v>95</v>
-      </c>
-      <c r="D74" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2655,10 +4478,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
         <v>12</v>
-      </c>
-      <c r="D75" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,10 +4492,10 @@
         <v>-1599.54</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2683,10 +4506,10 @@
         <v>-23.06</v>
       </c>
       <c r="C77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2697,10 +4520,10 @@
         <v>-500</v>
       </c>
       <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" t="s">
         <v>99</v>
-      </c>
-      <c r="D78" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2711,10 +4534,10 @@
         <v>-1042.95</v>
       </c>
       <c r="C79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,10 +4548,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2739,10 +4562,10 @@
         <v>-1000</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2753,10 +4576,10 @@
         <v>-575</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2767,10 +4590,10 @@
         <v>-3330</v>
       </c>
       <c r="C83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2781,10 +4604,10 @@
         <v>-1000</v>
       </c>
       <c r="C84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2795,10 +4618,10 @@
         <v>-500</v>
       </c>
       <c r="C85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2809,10 +4632,10 @@
         <v>-100</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2823,10 +4646,10 @@
         <v>-100</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2837,10 +4660,10 @@
         <v>-1662.07</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2851,10 +4674,10 @@
         <v>20237.490000000002</v>
       </c>
       <c r="C89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2865,10 +4688,10 @@
         <v>-18.36</v>
       </c>
       <c r="C90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2879,10 +4702,10 @@
         <v>-35.75</v>
       </c>
       <c r="C91" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" t="s">
         <v>113</v>
-      </c>
-      <c r="D91" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2893,10 +4716,10 @@
         <v>-207.58</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2907,10 +4730,10 @@
         <v>-1114.3699999999999</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2921,10 +4744,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
         <v>12</v>
-      </c>
-      <c r="D94" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2935,10 +4758,10 @@
         <v>-99.93</v>
       </c>
       <c r="C95" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2949,10 +4772,10 @@
         <v>-23.06</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2963,10 +4786,10 @@
         <v>-520.36</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2977,10 +4800,10 @@
         <v>-575</v>
       </c>
       <c r="C98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2991,10 +4814,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3005,10 +4828,10 @@
         <v>-3330</v>
       </c>
       <c r="C100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D100" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3019,10 +4842,10 @@
         <v>-1000</v>
       </c>
       <c r="C101" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -3033,10 +4856,10 @@
         <v>-1616.4</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -3047,10 +4870,10 @@
         <v>-1411.2</v>
       </c>
       <c r="C103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -3061,10 +4884,10 @@
         <v>-1000</v>
       </c>
       <c r="C104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -3075,10 +4898,10 @@
         <v>-500</v>
       </c>
       <c r="C105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -3089,10 +4912,10 @@
         <v>-100</v>
       </c>
       <c r="C106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -3103,10 +4926,10 @@
         <v>-100</v>
       </c>
       <c r="C107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -3117,10 +4940,10 @@
         <v>-800</v>
       </c>
       <c r="C108" t="s">
+        <v>60</v>
+      </c>
+      <c r="D108" t="s">
         <v>61</v>
-      </c>
-      <c r="D108" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -3131,10 +4954,10 @@
         <v>-3201.71</v>
       </c>
       <c r="C109" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -3145,10 +4968,10 @@
         <v>-369.17</v>
       </c>
       <c r="C110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -3159,10 +4982,10 @@
         <v>-3100.21</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -3173,10 +4996,10 @@
         <v>-207.51</v>
       </c>
       <c r="C112" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -3187,10 +5010,10 @@
         <v>23128.560000000001</v>
       </c>
       <c r="C113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -3201,10 +5024,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
         <v>12</v>
-      </c>
-      <c r="D114" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -3215,10 +5038,10 @@
         <v>-595</v>
       </c>
       <c r="C115" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -3229,10 +5052,10 @@
         <v>-23.06</v>
       </c>
       <c r="C116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,10 +5066,10 @@
         <v>-417.39</v>
       </c>
       <c r="C117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -3257,10 +5080,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -3271,10 +5094,10 @@
         <v>-95</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -3285,10 +5108,10 @@
         <v>-1000</v>
       </c>
       <c r="C120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -3299,10 +5122,10 @@
         <v>-1113.5</v>
       </c>
       <c r="C121" t="s">
+        <v>140</v>
+      </c>
+      <c r="D121" t="s">
         <v>141</v>
-      </c>
-      <c r="D121" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -3313,10 +5136,10 @@
         <v>-1000</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -3327,10 +5150,10 @@
         <v>-500</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D123" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -3341,10 +5164,10 @@
         <v>-100</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -3355,10 +5178,10 @@
         <v>-100</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -3369,10 +5192,10 @@
         <v>-100</v>
       </c>
       <c r="C126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -3383,10 +5206,10 @@
         <v>-333.95</v>
       </c>
       <c r="C127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -3397,10 +5220,10 @@
         <v>-2.12</v>
       </c>
       <c r="C128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -3411,10 +5234,10 @@
         <v>-388.75</v>
       </c>
       <c r="C129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -3425,10 +5248,10 @@
         <v>22027.200000000001</v>
       </c>
       <c r="C130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -3439,10 +5262,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C131" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s">
         <v>12</v>
-      </c>
-      <c r="D131" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -3453,10 +5276,10 @@
         <v>-124.12</v>
       </c>
       <c r="C132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -3467,10 +5290,10 @@
         <v>-23.06</v>
       </c>
       <c r="C133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -3481,10 +5304,10 @@
         <v>-451.55</v>
       </c>
       <c r="C134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -3495,10 +5318,10 @@
         <v>-575</v>
       </c>
       <c r="C135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,10 +5332,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C136" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D136" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -3523,10 +5346,10 @@
         <v>-3330</v>
       </c>
       <c r="C137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -3537,10 +5360,10 @@
         <v>-1000</v>
       </c>
       <c r="C138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -3551,10 +5374,10 @@
         <v>-1000</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -3565,10 +5388,10 @@
         <v>-500</v>
       </c>
       <c r="C140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -3579,10 +5402,10 @@
         <v>-100</v>
       </c>
       <c r="C141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -3593,10 +5416,10 @@
         <v>-564.6</v>
       </c>
       <c r="C142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -3607,10 +5430,10 @@
         <v>-100</v>
       </c>
       <c r="C143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -3621,10 +5444,10 @@
         <v>-1759.45</v>
       </c>
       <c r="C144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D144" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -3635,10 +5458,10 @@
         <v>-2207.92</v>
       </c>
       <c r="C145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D145" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -3649,10 +5472,10 @@
         <v>-106.9</v>
       </c>
       <c r="C146" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D146" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -3663,10 +5486,10 @@
         <v>-10.4</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -3677,10 +5500,10 @@
         <v>-299.42</v>
       </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -3691,10 +5514,10 @@
         <v>-4000</v>
       </c>
       <c r="C149" t="s">
+        <v>168</v>
+      </c>
+      <c r="D149" t="s">
         <v>169</v>
-      </c>
-      <c r="D149" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -3705,10 +5528,10 @@
         <v>-11500</v>
       </c>
       <c r="C150" t="s">
+        <v>170</v>
+      </c>
+      <c r="D150" t="s">
         <v>171</v>
-      </c>
-      <c r="D150" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -3719,10 +5542,10 @@
         <v>25331.279999999999</v>
       </c>
       <c r="C151" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -3733,10 +5556,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
         <v>12</v>
-      </c>
-      <c r="D152" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -3747,10 +5570,10 @@
         <v>-23.06</v>
       </c>
       <c r="C153" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D153" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -3761,10 +5584,10 @@
         <v>-375.76</v>
       </c>
       <c r="C154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -3775,10 +5598,10 @@
         <v>-575</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D155" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -3789,10 +5612,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C156" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D156" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -3803,10 +5626,10 @@
         <v>-3330</v>
       </c>
       <c r="C157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -3817,10 +5640,10 @@
         <v>-1000</v>
       </c>
       <c r="C158" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -3831,10 +5654,10 @@
         <v>-1000</v>
       </c>
       <c r="C159" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -3845,10 +5668,10 @@
         <v>-500</v>
       </c>
       <c r="C160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -3859,10 +5682,10 @@
         <v>-100</v>
       </c>
       <c r="C161" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -3873,10 +5696,10 @@
         <v>-100</v>
       </c>
       <c r="C162" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -3887,10 +5710,10 @@
         <v>-1808</v>
       </c>
       <c r="C163" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D163" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -3901,10 +5724,10 @@
         <v>-1603.9</v>
       </c>
       <c r="C164" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D164" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -3915,10 +5738,10 @@
         <v>-14.12</v>
       </c>
       <c r="C165" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D165" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,10 +5752,10 @@
         <v>-18</v>
       </c>
       <c r="C166" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" t="s">
         <v>41</v>
-      </c>
-      <c r="D166" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -3943,10 +5766,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s">
         <v>12</v>
-      </c>
-      <c r="D167" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -3957,10 +5780,10 @@
         <v>-79</v>
       </c>
       <c r="C168" t="s">
+        <v>186</v>
+      </c>
+      <c r="D168" t="s">
         <v>187</v>
-      </c>
-      <c r="D168" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -3971,10 +5794,10 @@
         <v>20925.84</v>
       </c>
       <c r="C169" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -3985,10 +5808,10 @@
         <v>-23.06</v>
       </c>
       <c r="C170" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D170" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -3999,10 +5822,10 @@
         <v>-575</v>
       </c>
       <c r="C171" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4013,10 +5836,10 @@
         <v>-3330</v>
       </c>
       <c r="C172" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D172" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -4027,10 +5850,10 @@
         <v>-600</v>
       </c>
       <c r="C173" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D173" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -4041,10 +5864,10 @@
         <v>-690.55</v>
       </c>
       <c r="C174" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -4055,10 +5878,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C175" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -4069,10 +5892,10 @@
         <v>-1000</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -4083,10 +5906,10 @@
         <v>-1000</v>
       </c>
       <c r="C177" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -4097,10 +5920,10 @@
         <v>-500</v>
       </c>
       <c r="C178" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D178" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -4111,10 +5934,10 @@
         <v>-100</v>
       </c>
       <c r="C179" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -4125,10 +5948,10 @@
         <v>-100</v>
       </c>
       <c r="C180" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D180" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,10 +5962,10 @@
         <v>-39</v>
       </c>
       <c r="C181" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -4153,10 +5976,10 @@
         <v>-1369.48</v>
       </c>
       <c r="C182" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -4167,10 +5990,10 @@
         <v>-50.64</v>
       </c>
       <c r="C183" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -4181,10 +6004,10 @@
         <v>-30000</v>
       </c>
       <c r="C184" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -4195,10 +6018,10 @@
         <v>-30000</v>
       </c>
       <c r="C185" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -4209,10 +6032,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C186" t="s">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s">
         <v>12</v>
-      </c>
-      <c r="D186" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -4223,10 +6046,10 @@
         <v>-100</v>
       </c>
       <c r="C187" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -4237,10 +6060,10 @@
         <v>22027.200000000001</v>
       </c>
       <c r="C188" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -4251,10 +6074,10 @@
         <v>-23.06</v>
       </c>
       <c r="C189" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D189" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -4265,10 +6088,10 @@
         <v>-559.96</v>
       </c>
       <c r="C190" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -4279,10 +6102,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C191" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -4293,10 +6116,10 @@
         <v>-575</v>
       </c>
       <c r="C192" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -4307,10 +6130,10 @@
         <v>-1000</v>
       </c>
       <c r="C193" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D193" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -4321,10 +6144,10 @@
         <v>-3330</v>
       </c>
       <c r="C194" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -4335,10 +6158,10 @@
         <v>-42</v>
       </c>
       <c r="C195" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -4349,10 +6172,10 @@
         <v>-3060</v>
       </c>
       <c r="C196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D196" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -4363,10 +6186,10 @@
         <v>-1000</v>
       </c>
       <c r="C197" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -4377,10 +6200,10 @@
         <v>-500</v>
       </c>
       <c r="C198" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D198" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -4391,10 +6214,10 @@
         <v>-610.35</v>
       </c>
       <c r="C199" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -4405,10 +6228,10 @@
         <v>-100</v>
       </c>
       <c r="C200" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D200" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -4419,10 +6242,10 @@
         <v>-3330</v>
       </c>
       <c r="C201" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D201" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -4433,10 +6256,10 @@
         <v>-339.1</v>
       </c>
       <c r="C202" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D202" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -4447,10 +6270,10 @@
         <v>-4860</v>
       </c>
       <c r="C203" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -4461,10 +6284,10 @@
         <v>6759.1</v>
       </c>
       <c r="C204" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -4475,10 +6298,10 @@
         <v>-420</v>
       </c>
       <c r="C205" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -4489,10 +6312,10 @@
         <v>-27.16</v>
       </c>
       <c r="C206" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,10 +6326,10 @@
         <v>-1729.5</v>
       </c>
       <c r="C207" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D207" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -4517,10 +6340,10 @@
         <v>16520.400000000001</v>
       </c>
       <c r="C208" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
@@ -4531,10 +6354,10 @@
         <v>-600</v>
       </c>
       <c r="C209" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D209" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -4545,10 +6368,10 @@
         <v>-250</v>
       </c>
       <c r="C210" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D210" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -4559,10 +6382,10 @@
         <v>-79.989999999999995</v>
       </c>
       <c r="C211" t="s">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s">
         <v>12</v>
-      </c>
-      <c r="D211" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -4573,10 +6396,10 @@
         <v>-1528.76</v>
       </c>
       <c r="C212" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -4587,10 +6410,10 @@
         <v>-23.06</v>
       </c>
       <c r="C213" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D213" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -4601,10 +6424,10 @@
         <v>-1086.58</v>
       </c>
       <c r="C214" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -4615,10 +6438,10 @@
         <v>-1000</v>
       </c>
       <c r="C215" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,10 +6452,10 @@
         <v>-1000</v>
       </c>
       <c r="C216" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -4643,10 +6466,10 @@
         <v>-500</v>
       </c>
       <c r="C217" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D217" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -4657,10 +6480,10 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="C218" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D218" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -4671,10 +6494,10 @@
         <v>-100</v>
       </c>
       <c r="C219" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
